--- a/SCD example data.xlsx
+++ b/SCD example data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tietoevry-my.sharepoint.com/personal/johannes_strassmayr_tietoevry_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="224" documentId="8_{5A0E5A49-D750-42EA-A1BD-88DE4E82B396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E0F3CB5-8280-4EA6-AF87-54F798888656}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{5A0E5A49-D750-42EA-A1BD-88DE4E82B396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83401172-670D-4FB0-8236-5270637D98C1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFF81B3A-8282-47DB-A667-445C54387296}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFF81B3A-8282-47DB-A667-445C54387296}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Regular Delta Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Delta Live Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="42">
   <si>
     <t>Source</t>
   </si>
@@ -135,13 +136,40 @@
   </si>
   <si>
     <t>Matt</t>
+  </si>
+  <si>
+    <t>sourceUpdates0.parquet</t>
+  </si>
+  <si>
+    <t>__END_AT</t>
+  </si>
+  <si>
+    <t>__START_AT</t>
+  </si>
+  <si>
+    <t>sys_edit_dt</t>
+  </si>
+  <si>
+    <t>dlt_dim_employee</t>
+  </si>
+  <si>
+    <t>dlt_employee (changed data only)</t>
+  </si>
+  <si>
+    <t>sourceUpdates3</t>
+  </si>
+  <si>
+    <t>time=2030</t>
+  </si>
+  <si>
+    <t>time=2031</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,8 +211,59 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -291,9 +376,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -641,13 +744,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EE93EC-F2E3-4848-BD29-CE38EA57B900}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.25" customWidth="1"/>
     <col min="11" max="11" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.125" customWidth="1"/>
@@ -687,6 +791,7 @@
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="11"/>
       <c r="K4" s="12" t="s">
         <v>19</v>
       </c>
@@ -972,28 +1077,28 @@
       <c r="J21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="20">
         <v>7</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="19">
         <v>33</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="19">
         <v>10</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21" s="19">
         <v>2023</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="19">
         <v>2025</v>
       </c>
-      <c r="Q21" s="25" t="b">
+      <c r="Q21" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="19" t="s">
         <v>30</v>
       </c>
       <c r="T21" s="19" t="s">
@@ -1001,28 +1106,28 @@
       </c>
     </row>
     <row r="22" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K22" s="24">
+      <c r="K22" s="20">
         <v>8</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="19">
         <v>33</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="19">
         <v>11</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22" s="19">
         <v>2025</v>
       </c>
       <c r="P22" s="21">
         <v>2027</v>
       </c>
-      <c r="Q22" s="25" t="b">
+      <c r="Q22" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="19" t="s">
         <v>30</v>
       </c>
       <c r="T22" s="19" t="s">
@@ -1030,7 +1135,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K23" s="26">
+      <c r="K23" s="24">
         <v>11</v>
       </c>
       <c r="L23" s="21">
@@ -1234,7 +1339,7 @@
       </c>
     </row>
     <row r="34" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K34" s="26">
+      <c r="K34" s="24">
         <v>4</v>
       </c>
       <c r="L34" s="21">
@@ -1266,6 +1371,1247 @@
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C91100-C723-4825-913D-304CB4775BF9}">
+  <dimension ref="A1:W46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.125" style="25" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="25" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
+    <col min="23" max="23" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V2" s="6"/>
+      <c r="W2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="1:23" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="38">
+        <v>2023</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="12"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="14">
+        <v>7</v>
+      </c>
+      <c r="L8" s="15">
+        <v>33</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8" s="15">
+        <v>2023</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="23"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>11</v>
+      </c>
+      <c r="D11" s="38">
+        <v>2024</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>20</v>
+      </c>
+      <c r="D12" s="38">
+        <v>2024</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>55</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6">
+        <v>30</v>
+      </c>
+      <c r="D13" s="38">
+        <v>2024</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="12"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="14">
+        <v>7</v>
+      </c>
+      <c r="L15" s="15">
+        <v>33</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+      <c r="O15" s="15">
+        <v>2023</v>
+      </c>
+      <c r="P15" s="38">
+        <v>2024</v>
+      </c>
+      <c r="Q15" s="25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K16" s="7">
+        <v>8</v>
+      </c>
+      <c r="L16" s="6">
+        <v>33</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="6">
+        <v>11</v>
+      </c>
+      <c r="O16" s="38">
+        <v>2024</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K17" s="7">
+        <v>9</v>
+      </c>
+      <c r="L17" s="6">
+        <v>44</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="6">
+        <v>20</v>
+      </c>
+      <c r="O17" s="38">
+        <v>2024</v>
+      </c>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K18" s="7">
+        <v>10</v>
+      </c>
+      <c r="L18" s="6">
+        <v>55</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="6">
+        <v>30</v>
+      </c>
+      <c r="O18" s="38">
+        <v>2024</v>
+      </c>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="23"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>33</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="34">
+        <v>70</v>
+      </c>
+      <c r="D21" s="42">
+        <v>2026</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+    </row>
+    <row r="23" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="33">
+        <v>7</v>
+      </c>
+      <c r="L23" s="31">
+        <v>33</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31">
+        <v>10</v>
+      </c>
+      <c r="O23" s="31">
+        <v>2023</v>
+      </c>
+      <c r="P23" s="31">
+        <v>2025</v>
+      </c>
+      <c r="Q23" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="33">
+        <v>8</v>
+      </c>
+      <c r="L24" s="31">
+        <v>33</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="31">
+        <v>11</v>
+      </c>
+      <c r="O24" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P24" s="34">
+        <v>2026</v>
+      </c>
+      <c r="Q24" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="31"/>
+      <c r="T24" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="35">
+        <v>11</v>
+      </c>
+      <c r="L25" s="34">
+        <v>33</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="34">
+        <v>70</v>
+      </c>
+      <c r="O25" s="34">
+        <v>2026</v>
+      </c>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="31"/>
+      <c r="T25" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="33">
+        <v>9</v>
+      </c>
+      <c r="L26" s="31">
+        <v>44</v>
+      </c>
+      <c r="M26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="31">
+        <v>20</v>
+      </c>
+      <c r="O26" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="31"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="33">
+        <v>10</v>
+      </c>
+      <c r="L27" s="31">
+        <v>55</v>
+      </c>
+      <c r="M27" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="31">
+        <v>30</v>
+      </c>
+      <c r="O27" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="31"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="28" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+    </row>
+    <row r="29" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
+        <v>66</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="34">
+        <v>40</v>
+      </c>
+      <c r="D30" s="42">
+        <v>2028</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+    </row>
+    <row r="32" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="33">
+        <v>0</v>
+      </c>
+      <c r="L32" s="31">
+        <v>33</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31">
+        <v>10</v>
+      </c>
+      <c r="O32" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P32" s="31">
+        <v>2027</v>
+      </c>
+      <c r="Q32" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="33">
+        <v>3</v>
+      </c>
+      <c r="L33" s="31">
+        <v>33</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31">
+        <v>70</v>
+      </c>
+      <c r="O33" s="31">
+        <v>2027</v>
+      </c>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="33">
+        <v>1</v>
+      </c>
+      <c r="L34" s="31">
+        <v>44</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N34" s="31">
+        <v>20</v>
+      </c>
+      <c r="O34" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R34" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="33">
+        <v>2</v>
+      </c>
+      <c r="L35" s="31">
+        <v>55</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" s="31">
+        <v>30</v>
+      </c>
+      <c r="O35" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R35" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="35">
+        <v>4</v>
+      </c>
+      <c r="L36" s="34">
+        <v>66</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="34">
+        <v>40</v>
+      </c>
+      <c r="O36" s="34">
+        <v>2028</v>
+      </c>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R36" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="31"/>
+      <c r="T36" s="31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="20"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>44</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="34">
+        <v>25</v>
+      </c>
+      <c r="D39" s="42">
+        <v>2030</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="33">
+        <v>0</v>
+      </c>
+      <c r="L41" s="31">
+        <v>33</v>
+      </c>
+      <c r="M41" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="31">
+        <v>10</v>
+      </c>
+      <c r="O41" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P41" s="31">
+        <v>2027</v>
+      </c>
+      <c r="Q41" s="32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R41" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="33">
+        <v>3</v>
+      </c>
+      <c r="L42" s="31">
+        <v>33</v>
+      </c>
+      <c r="M42" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="31">
+        <v>70</v>
+      </c>
+      <c r="O42" s="31">
+        <v>2027</v>
+      </c>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R42" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="33">
+        <v>1</v>
+      </c>
+      <c r="L43" s="31">
+        <v>44</v>
+      </c>
+      <c r="M43" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="31">
+        <v>20</v>
+      </c>
+      <c r="O43" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P43" s="34">
+        <v>2030</v>
+      </c>
+      <c r="Q43" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R43" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="35">
+        <v>1</v>
+      </c>
+      <c r="L44" s="34">
+        <v>44</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="N44" s="34">
+        <v>25</v>
+      </c>
+      <c r="O44" s="34">
+        <v>2030</v>
+      </c>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R44" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="33">
+        <v>2</v>
+      </c>
+      <c r="L45" s="31">
+        <v>55</v>
+      </c>
+      <c r="M45" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" s="31">
+        <v>30</v>
+      </c>
+      <c r="O45" s="31">
+        <v>2025</v>
+      </c>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R45" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="33">
+        <v>4</v>
+      </c>
+      <c r="L46" s="31">
+        <v>66</v>
+      </c>
+      <c r="M46" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="31">
+        <v>40</v>
+      </c>
+      <c r="O46" s="31">
+        <v>2028</v>
+      </c>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="R46" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
